--- a/data-raw/dict_maps.xlsx
+++ b/data-raw/dict_maps.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qc0824/Documents/2_Areas/R_Packge_Development_Maintenance/canregtools/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qc0824/Documents/2_Areas/R_Packages/canregtools/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E684E110-A5F8-3342-A406-114DA91439D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66A46C5-5D40-D847-98EE-D06B3DB6EC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10840" yWindow="3020" windowWidth="39960" windowHeight="18000" activeTab="2" xr2:uid="{699DAEA7-59AC-854D-84C4-AB58D60E2EA8}"/>
+    <workbookView xWindow="10840" yWindow="3020" windowWidth="39960" windowHeight="18000" activeTab="3" xr2:uid="{699DAEA7-59AC-854D-84C4-AB58D60E2EA8}"/>
   </bookViews>
   <sheets>
     <sheet name="std_pop" sheetId="1" r:id="rId1"/>
     <sheet name="prov_region" sheetId="2" r:id="rId2"/>
     <sheet name="areacode_registry" sheetId="3" r:id="rId3"/>
     <sheet name="areacode_area_type" sheetId="6" r:id="rId4"/>
-    <sheet name="icd10_code" sheetId="4" r:id="rId5"/>
-    <sheet name="registry_type" sheetId="5" r:id="rId6"/>
+    <sheet name="areacode_custom" sheetId="7" r:id="rId5"/>
+    <sheet name="icd10_code" sheetId="4" r:id="rId6"/>
+    <sheet name="registry_type" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1397" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="650">
   <si>
     <t>agegrp</t>
   </si>
@@ -3699,9 +3700,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>rural</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -3724,6 +3722,10 @@
   </si>
   <si>
     <t>411101</t>
+  </si>
+  <si>
+    <t>920000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3804,7 +3806,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3830,6 +3832,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4168,12 +4173,13 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
@@ -4889,7 +4895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FB1B3F-6D52-8740-B889-390C8E8D864D}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -4901,7 +4907,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>640</v>
@@ -4912,7 +4918,7 @@
         <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4920,7 +4926,7 @@
         <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -4928,7 +4934,7 @@
         <v>190</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -4936,7 +4942,7 @@
         <v>191</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -4944,7 +4950,7 @@
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -4952,7 +4958,7 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -4960,7 +4966,7 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4968,7 +4974,7 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4976,7 +4982,7 @@
         <v>213</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4984,7 +4990,7 @@
         <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -4992,7 +4998,7 @@
         <v>70</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5000,7 +5006,7 @@
         <v>71</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5008,7 +5014,7 @@
         <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5016,7 +5022,7 @@
         <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5024,7 +5030,7 @@
         <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5032,7 +5038,7 @@
         <v>72</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5040,7 +5046,7 @@
         <v>73</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5048,7 +5054,7 @@
         <v>74</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5056,7 +5062,7 @@
         <v>75</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5064,7 +5070,7 @@
         <v>76</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5072,7 +5078,7 @@
         <v>77</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5080,7 +5086,7 @@
         <v>78</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -5090,7 +5096,7 @@
         <v>79</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>
@@ -5106,19 +5112,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F98567-CB81-1740-814C-16BC1EA54249}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>640</v>
@@ -5129,7 +5134,7 @@
         <v>213</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5137,7 +5142,7 @@
         <v>287</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5145,7 +5150,7 @@
         <v>214</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -5155,6 +5160,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A375945E-0F78-4B42-885E-A9799A12AFBA}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6481E91-B1F3-5340-90D5-D7DDB216A321}">
   <dimension ref="A1:E105"/>
   <sheetViews>
@@ -6966,7 +7011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B1DD52-6A45-EB4D-A60D-5C2FADA85905}">
   <dimension ref="A1:E180"/>
   <sheetViews>

--- a/data-raw/dict_maps.xlsx
+++ b/data-raw/dict_maps.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qc0824/Documents/2_Areas/R_Packages/canregtools/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66A46C5-5D40-D847-98EE-D06B3DB6EC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4689B7D-84B0-BB4C-B585-9C58C7353B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10840" yWindow="3020" windowWidth="39960" windowHeight="18000" activeTab="3" xr2:uid="{699DAEA7-59AC-854D-84C4-AB58D60E2EA8}"/>
+    <workbookView xWindow="11140" yWindow="3100" windowWidth="34560" windowHeight="21580" activeTab="3" xr2:uid="{699DAEA7-59AC-854D-84C4-AB58D60E2EA8}"/>
   </bookViews>
   <sheets>
     <sheet name="std_pop" sheetId="1" r:id="rId1"/>
-    <sheet name="prov_region" sheetId="2" r:id="rId2"/>
-    <sheet name="areacode_registry" sheetId="3" r:id="rId3"/>
-    <sheet name="areacode_area_type" sheetId="6" r:id="rId4"/>
-    <sheet name="areacode_custom" sheetId="7" r:id="rId5"/>
-    <sheet name="icd10_code" sheetId="4" r:id="rId6"/>
-    <sheet name="registry_type" sheetId="5" r:id="rId7"/>
+    <sheet name="lang" sheetId="8" r:id="rId2"/>
+    <sheet name="prov_region" sheetId="2" r:id="rId3"/>
+    <sheet name="areacode_registry" sheetId="3" r:id="rId4"/>
+    <sheet name="areacode_area_type" sheetId="6" r:id="rId5"/>
+    <sheet name="areacode_custom" sheetId="7" r:id="rId6"/>
+    <sheet name="icd10_code" sheetId="10" r:id="rId7"/>
+    <sheet name="registry_type" sheetId="5" r:id="rId8"/>
+    <sheet name="topo_code" sheetId="4" r:id="rId9"/>
+    <sheet name="morp_multi" sheetId="9" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">icd10_code!$A$1:$E$105</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="693">
   <si>
     <t>agegrp</t>
   </si>
@@ -3726,13 +3733,165 @@
   <si>
     <t>920000</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>english</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh-cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chinese</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8090-8110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9050-9055</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9650-9667</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9740-9742</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9750-9758</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000-8005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8051-8084,8120-8131</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8140-8149,8160-8162,8190-8221,8260-8337,8350-8551,8570-8576,8940-8941</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8030-8046,8150-8157,8170-8180,8230-8255,8340-8347,8560-8562,8580-8671</t>
+  </si>
+  <si>
+    <t>8010-8015,8020-8022,8050</t>
+  </si>
+  <si>
+    <t>8680-8713,8800-8921,8990-8991,9040-9044,9120-9125,9130-9136,9141-9252,9370-9373,9540-9582</t>
+  </si>
+  <si>
+    <t>9840,9861-9931,9945-9946,9950,9961-9964,9980-9987</t>
+  </si>
+  <si>
+    <t>9670-9699,9728,9731-9734,9761-9767,9769,9823-9826,9833,9836,9940</t>
+  </si>
+  <si>
+    <t>9700-9719,9729,9768,9827-9831,9834,9837,9948</t>
+  </si>
+  <si>
+    <t>9590-9591,9596,9727,9760,9800-9801,9805,9820,9832,9835,9860,9960,9970,9975,9989</t>
+  </si>
+  <si>
+    <t>8720-8790,8930-8936,8950-8983,9000-9030,9060-9110,9260-9365,9380-9539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C00-C14 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C15-C26</t>
+  </si>
+  <si>
+    <t>C30-C39</t>
+  </si>
+  <si>
+    <t>C40-C41</t>
+  </si>
+  <si>
+    <t>C51-C58</t>
+  </si>
+  <si>
+    <t>C60-C63</t>
+  </si>
+  <si>
+    <t>C64-C68</t>
+  </si>
+  <si>
+    <t>C69-C72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C73-C75</t>
+  </si>
+  <si>
+    <t>system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C00-C14</t>
+  </si>
+  <si>
+    <t>C69-C72</t>
+  </si>
+  <si>
+    <t>411301</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -3783,6 +3942,18 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3806,7 +3977,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3834,6 +4005,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4173,7 +4362,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4591,7 +4780,439 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CCD068A-056A-F544-A47D-7BA9A62140AE}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="76.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="12"/>
+    <col min="3" max="16384" width="10.7109375" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="B3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17">
+      <c r="A4" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="B4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17">
+      <c r="A5" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="B6" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17">
+      <c r="A7" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="B7" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17">
+      <c r="A8" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="B8" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17">
+      <c r="A9" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="B9" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17">
+      <c r="A10" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="B10" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17">
+      <c r="A11" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="B11" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="16" t="s">
+        <v>661</v>
+      </c>
+      <c r="B12" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17">
+      <c r="A13" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="B13" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17">
+      <c r="A14" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="B14" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17">
+      <c r="A15" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="B15" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="11">
+        <v>9140</v>
+      </c>
+      <c r="B16" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17">
+      <c r="A17" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="B17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17">
+      <c r="A18" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="B18" s="12">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D05E4E-841F-D540-A099-F9CE499AA67B}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="72.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="11" t="s">
+        <v>637</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="11" t="s">
+        <v>665</v>
+      </c>
+      <c r="B2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="11" t="s">
+        <v>659</v>
+      </c>
+      <c r="B3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="B4" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="B5" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="B6" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="14" t="s">
+        <v>669</v>
+      </c>
+      <c r="B7" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="B8" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="14" t="s">
+        <v>670</v>
+      </c>
+      <c r="B9" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="14" t="s">
+        <v>671</v>
+      </c>
+      <c r="B10" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="B11" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="16" t="s">
+        <v>661</v>
+      </c>
+      <c r="B12" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="B13" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="B14" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="B15" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="11">
+        <v>9140</v>
+      </c>
+      <c r="B16" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="14" t="s">
+        <v>674</v>
+      </c>
+      <c r="B17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="B18" s="12">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A736BB-0373-1B4B-BD01-A125606B4BA1}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>651</v>
+      </c>
+      <c r="B3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>652</v>
+      </c>
+      <c r="B4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>654</v>
+      </c>
+      <c r="B6" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>655</v>
+      </c>
+      <c r="B7" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>656</v>
+      </c>
+      <c r="B8" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>657</v>
+      </c>
+      <c r="B9" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>658</v>
+      </c>
+      <c r="B10" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>639</v>
+      </c>
+      <c r="B11" t="s">
+        <v>639</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E8A6BAD-4D8E-4C44-ABD4-5FCC22FA829D}">
   <dimension ref="A1:B35"/>
   <sheetViews>
@@ -4891,18 +5512,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FB1B3F-6D52-8740-B889-390C8E8D864D}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5098,6 +5719,33 @@
       <c r="B24" s="2" t="s">
         <v>648</v>
       </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D24">
@@ -5108,11 +5756,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F98567-CB81-1740-814C-16BC1EA54249}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -5159,7 +5807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A375945E-0F78-4B42-885E-A9799A12AFBA}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -5199,22 +5847,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6481E91-B1F3-5340-90D5-D7DDB216A321}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B7C4A08-D076-7A44-85EC-C9C91C834E05}">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:C74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="5.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -7003,15 +7650,12 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E105">
-    <sortCondition ref="A2:A105"/>
-  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65B1DD52-6A45-EB4D-A60D-5C2FADA85905}">
   <dimension ref="A1:E180"/>
   <sheetViews>
@@ -9749,4 +10393,597 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6481E91-B1F3-5340-90D5-D7DDB216A321}">
+  <dimension ref="A1:B71"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.7109375" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18">
+      <c r="A2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18">
+      <c r="A3" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="B3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18">
+      <c r="A4" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="B4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18">
+      <c r="A5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18">
+      <c r="A6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18">
+      <c r="A7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18">
+      <c r="A8" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18">
+      <c r="A9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18">
+      <c r="A10" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18">
+      <c r="A11" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18">
+      <c r="A12" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18">
+      <c r="A13" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18">
+      <c r="A14" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18">
+      <c r="A15" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18">
+      <c r="A16" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18">
+      <c r="A17" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18">
+      <c r="A18" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18">
+      <c r="A19" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18">
+      <c r="A20" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18">
+      <c r="A21" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18">
+      <c r="A22" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18">
+      <c r="A23" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18">
+      <c r="A24" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18">
+      <c r="A25" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="18">
+      <c r="A26" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18">
+      <c r="A27" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18">
+      <c r="A28" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18">
+      <c r="A29" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18">
+      <c r="A30" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18">
+      <c r="A31" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18">
+      <c r="A32" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18">
+      <c r="A33" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18">
+      <c r="A34" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18">
+      <c r="A35" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18">
+      <c r="A36" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18">
+      <c r="A37" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18">
+      <c r="A38" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="18">
+      <c r="A39" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18">
+      <c r="A40" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="18">
+      <c r="A41" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="18">
+      <c r="A42" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="18">
+      <c r="A43" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="18">
+      <c r="A44" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="18">
+      <c r="A45" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="18">
+      <c r="A46" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="18">
+      <c r="A47" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18">
+      <c r="A48" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="18">
+      <c r="A49" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="18">
+      <c r="A50" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="18">
+      <c r="A51" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18">
+      <c r="A52" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="18">
+      <c r="A53" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="18">
+      <c r="A54" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="18">
+      <c r="A55" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="18">
+      <c r="A56" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="18">
+      <c r="A57" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="18">
+      <c r="A58" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="18">
+      <c r="A59" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="18">
+      <c r="A60" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="18">
+      <c r="A61" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="18">
+      <c r="A62" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="18">
+      <c r="A63" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="18">
+      <c r="A64" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="18">
+      <c r="A65" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="18">
+      <c r="A66" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="18">
+      <c r="A67" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="18">
+      <c r="A68" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="18">
+      <c r="A69" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="18">
+      <c r="A70" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="18">
+      <c r="A71" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B105">
+    <sortCondition ref="A2:A105"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>